--- a/permit/htdocs/data/销售导入模板-已售记录.xlsx
+++ b/permit/htdocs/data/销售导入模板-已售记录.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -892,8 +892,12 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
       <c r="I5" s="7">
         <v>330</v>
       </c>
@@ -910,62 +914,30 @@
     <row r="6" spans="1:12">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="7">
-        <v>500</v>
-      </c>
-      <c r="F6" s="7">
-        <v>600</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>198</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>200</v>
-      </c>
-      <c r="J7" s="7">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7">
-        <v>300</v>
-      </c>
-      <c r="L7" s="7">
-        <v>50</v>
-      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6"/>
